--- a/bug_report.xlsx
+++ b/bug_report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
   <si>
     <t>Bug No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,27 +148,6 @@
   </si>
   <si>
     <t>1. Request renew api with an invalid username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fetch failed.    
-Error: Unauthorized, Response code:401, response body:"Invalid Token"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不论传什么token，都可以成功的查询到天气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weather</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不论使用什么正确的token，都只能等到第一次注册用户的信息。无法得到正确的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -926,11 +905,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1060,10 +1039,10 @@
         <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>31</v>
@@ -1086,10 +1065,10 @@
         <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>33</v>
@@ -1098,7 +1077,7 @@
         <v>32</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.15">
@@ -1109,22 +1088,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.15">
@@ -1135,22 +1114,22 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.15">
@@ -1161,22 +1140,22 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.15">
@@ -1187,22 +1166,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.15">
@@ -1213,178 +1192,178 @@
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1448,29 +1427,27 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>34</v>
-      </c>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1520,34 +1497,34 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
@@ -1608,36 +1585,6 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
